--- a/data/stat probs/micah potter stat probs - condition.xlsx
+++ b/data/stat probs/micah potter stat probs - condition.xlsx
@@ -43,14 +43,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="94 before 2023 full" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="50 after 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="50 after 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="50 before 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="50 before 2023 full" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mem 2023 full" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="50 before 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="50 before 2023 full" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="46" state="visible" r:id="rId46"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,28 +533,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -949,28 +951,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1367,28 +1369,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1785,28 +1787,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2209,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2403,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2597,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2791,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2985,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3179,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3367,10 +3369,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -3385,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3561,28 +3563,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -3979,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -3997,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4173,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4191,10 +4193,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4367,10 +4369,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4385,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4561,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4579,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4755,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4773,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4949,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -4961,16 +4963,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5271,10 +5273,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5283,16 +5285,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5593,10 +5595,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5605,16 +5607,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5915,10 +5917,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5927,16 +5929,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6237,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6249,16 +6251,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6559,28 +6561,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -6977,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6989,16 +6991,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7311,10 +7313,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7441,10 +7443,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7571,10 +7573,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7701,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7831,10 +7833,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7961,10 +7963,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8016,7 +8018,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8091,16 +8093,48 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8114,7 +8148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8189,16 +8223,48 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -8373,28 +8439,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -9022,7 +9088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9109,140 +9175,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9311,22 +9347,248 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9537,28 +9799,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -9763,28 +10025,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -9989,28 +10251,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10407,28 +10669,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10825,28 +11087,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
